--- a/out/all.xlsx
+++ b/out/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>*</t>
   </si>
@@ -45,358 +45,92 @@
     <t>8:0~8:40</t>
   </si>
   <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 English B SL, DP1 English B SL, [教师21]
-</t>
-  </si>
-  <si>
-    <t>DP2 English TOK, DP2 English TOK, [教师22]
-DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+    <t>小学一年级1班, 补刀课位, []
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 英语, [刘雨依]
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 英语, [刘雨依]
+小学一年级2班, 补刀课位, []
+</t>
+  </si>
+  <si>
+    <t>小学一年级2班, 补刀课位, []
 </t>
   </si>
   <si>
     <t>8:50~9:30</t>
   </si>
   <si>
-    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-</t>
-  </si>
-  <si>
-    <t>DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
-DP2 Economics HL, DP2 Economics HL, [教师1]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+    <t>小学一年级1班, 语文, [李玉涛]
+小学一年级2班, 英语, [刘雨依]
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 语文, [李玉涛]
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 语文, [李玉涛]
+小学一年级2班, 补刀课位, []
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 数学, [张华]
 </t>
   </si>
   <si>
     <t>9:40~10:20</t>
   </si>
   <si>
-    <t>DP1 Biology HL, DP1 Biology HL, [教师18]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP2 English B HL, DP2 English B HL, [教师22]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-DP1 English B SL, DP1 English B SL, [教师21]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+    <t>小学一年级1班, 补刀课位, []
+小学一年级2班, 补刀课位, []
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 补刀课位, []
+小学一年级2班, 数学, [张华]
 </t>
   </si>
   <si>
     <t>10:30~11:10</t>
   </si>
   <si>
-    <t>DP1 Biology HL, DP1 Biology HL, [教师18]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 English TOK, DP2 English TOK, [教师22]
-DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 English B HL, DP2 English B HL, [教师22]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP2 English B HL, DP2 English B HL, [教师22]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+    <t>小学一年级2班, 英语, [刘雨依]
 </t>
   </si>
   <si>
     <t>11:20~12:0</t>
   </si>
   <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 English B SL, DP1 English B SL, [教师21]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
     <t>14:30~15:10</t>
   </si>
   <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-</t>
-  </si>
-  <si>
-    <t>DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 English B SL, DP1 English B SL, [教师21]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL, DP1 Economics HL, [教师11]
-DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
+    <t>小学一年级1班, 数学, [张华]
+小学一年级2班, 补刀课位, []
+</t>
+  </si>
+  <si>
+    <t>小学一年级1班, 语文, [李玉涛]
+小学一年级2班, 数学, [张华]
+</t>
+  </si>
+  <si>
+    <t>小学一年级2班, 数学, [张华]
 </t>
   </si>
   <si>
     <t>15:20~16:0</t>
   </si>
   <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP2 English B HL, DP2 English B HL, [教师22]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Physics HL, DP2 Physics HL, [教师20]
-DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>16:10~16:0</t>
-  </si>
-  <si>
-    <t>DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP1 Biology, DP1 Biology, [教师18]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Physics HL, DP1 Physics HL, [教师15]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP2 Physics HL, DP2 Physics HL, [教师20]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 English B HL, DP2 English B HL, [教师22]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-</t>
-  </si>
-  <si>
     <t>16:10~16:50</t>
   </si>
   <si>
-    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Physics HL, DP1 Physics HL, [教师15]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Biology HL, DP2 Biology HL, [教师27]
-</t>
-  </si>
-  <si>
-    <t>17:0~17:40</t>
-  </si>
-  <si>
-    <t>DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>DP1 Biology, DP1 Biology, [教师18]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Biology HL, DP2 Biology HL, [教师27]
-</t>
-  </si>
-  <si>
-    <t>17:50~18:30</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+    <t>小学一年级1班, 补刀课位, []
+小学一年级2班, 英语, [刘雨依]
 </t>
   </si>
 </sst>
@@ -815,16 +549,16 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="2" t="s"/>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,15 +569,17 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -859,181 +595,149 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G4" s="2" t="s"/>
       <c r="H4" s="2" t="s"/>
     </row>
     <row r="5" ht="170" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s"/>
       <c r="G5" s="2" t="s"/>
       <c r="H5" s="2" t="s"/>
     </row>
     <row r="6" ht="170" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s"/>
       <c r="H6" s="2" t="s"/>
     </row>
     <row r="7" ht="170" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s"/>
       <c r="H7" s="2" t="s"/>
     </row>
     <row r="8" ht="170" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s"/>
       <c r="G8" s="2" t="s"/>
       <c r="H8" s="2" t="s"/>
     </row>
     <row r="9" ht="170" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s"/>
       <c r="G9" s="2" t="s"/>
       <c r="H9" s="2" t="s"/>
     </row>
     <row r="10" ht="170" customHeight="true">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="1" t="s"/>
+      <c r="B10" s="2" t="s"/>
+      <c r="C10" s="2" t="s"/>
+      <c r="D10" s="2" t="s"/>
+      <c r="E10" s="2" t="s"/>
       <c r="F10" s="2" t="s"/>
       <c r="G10" s="2" t="s"/>
       <c r="H10" s="2" t="s"/>
     </row>
     <row r="11" ht="170" customHeight="true">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A11" s="1" t="s"/>
+      <c r="B11" s="2" t="s"/>
+      <c r="C11" s="2" t="s"/>
+      <c r="D11" s="2" t="s"/>
+      <c r="E11" s="2" t="s"/>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s"/>
       <c r="H11" s="2" t="s"/>
     </row>
     <row r="12" ht="170" customHeight="true">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="2" t="s"/>
       <c r="C12" s="2" t="s"/>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D12" s="2" t="s"/>
       <c r="E12" s="2" t="s"/>
       <c r="F12" s="2" t="s"/>
       <c r="G12" s="2" t="s"/>

--- a/out/all.xlsx
+++ b/out/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>*</t>
   </si>
@@ -45,92 +45,354 @@
     <t>8:0~8:40</t>
   </si>
   <si>
-    <t>小学一年级1班, 补刀课位, []
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 英语, [刘雨依]
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 英语, [刘雨依]
-小学一年级2班, 补刀课位, []
-</t>
-  </si>
-  <si>
-    <t>小学一年级2班, 补刀课位, []
+    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP1 Economics, DP1 Economics, [教师1]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+</t>
+  </si>
+  <si>
+    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP2 English TOK, DP2 English TOK, [教师22]
+DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP1 Economics, DP1 Economics, [教师1]
 </t>
   </si>
   <si>
     <t>8:50~9:30</t>
   </si>
   <si>
-    <t>小学一年级1班, 语文, [李玉涛]
-小学一年级2班, 英语, [刘雨依]
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 语文, [李玉涛]
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 语文, [李玉涛]
-小学一年级2班, 补刀课位, []
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 数学, [张华]
+    <t>DP2 Business Management HL, DP2 Business Management HL, [教师8]
+DP1 Biology, DP1 Biology, [教师18]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Economics, DP1 Economics, [教师1]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
 </t>
   </si>
   <si>
     <t>9:40~10:20</t>
   </si>
   <si>
-    <t>小学一年级1班, 补刀课位, []
-小学一年级2班, 补刀课位, []
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 补刀课位, []
-小学一年级2班, 数学, [张华]
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
+DP1 Biology, DP1 Biology, [教师18]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+DP1 Physics HL, DP1 Physics HL, [教师15]
+DP1 English, DP1 English, [教师17]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics, DP1 Economics, [教师1]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
 </t>
   </si>
   <si>
     <t>10:30~11:10</t>
   </si>
   <si>
-    <t>小学一年级2班, 英语, [刘雨依]
+    <t>DP2 English B HL, DP2 English B HL, [教师22]
+DP1 English, DP1 English, [教师17]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+DP1 Physics HL, DP1 Physics HL, [教师15]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+DP1 English, DP1 English, [教师17]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
+DP1 Biology, DP1 Biology, [教师18]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
 </t>
   </si>
   <si>
     <t>11:20~12:0</t>
   </si>
   <si>
+    <t>DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Psychology HL, DP1 Psychology HL, [教师25]
+DP1 English, DP1 English, [教师17]
+DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 English B SL, DP2 English B SL, [教师16]
+</t>
+  </si>
+  <si>
+    <t>DP2 English TOK, DP2 English TOK, [教师22]
+DP2 Psychology HL, DP2 Psychology HL, [教师25]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
+DP1 Biology HL, DP1 Biology HL, [教师18]
+DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
+</t>
+  </si>
+  <si>
     <t>14:30~15:10</t>
   </si>
   <si>
-    <t>小学一年级1班, 数学, [张华]
-小学一年级2班, 补刀课位, []
-</t>
-  </si>
-  <si>
-    <t>小学一年级1班, 语文, [李玉涛]
-小学一年级2班, 数学, [张华]
-</t>
-  </si>
-  <si>
-    <t>小学一年级2班, 数学, [张华]
+    <t>DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 English B HL, DP1 English B HL, [教师16]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
+DP1 Economics, DP1 Economics, [教师1]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP2 Business Management HL, DP2 Business Management HL, [教师8]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP1 English, DP1 English, [教师17]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP1 English B SL, DP1 English B SL, [教师21]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 English B HL, DP1 English B HL, [教师16]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
 </t>
   </si>
   <si>
     <t>15:20~16:0</t>
   </si>
   <si>
+    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP1 English, DP1 English, [教师17]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics, DP1 Economics, [教师1]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+DP1 Biology, DP1 Biology, [教师18]
+DP1 English B SL, DP1 English B SL, [教师21]
+DP1 English B HL, DP1 English B HL, [教师16]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
+DP1 Biology, DP1 Biology, [教师18]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>16:10~16:0</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
+DP1 Biology, DP1 Biology, [教师18]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+</t>
+  </si>
+  <si>
     <t>16:10~16:50</t>
   </si>
   <si>
-    <t>小学一年级1班, 补刀课位, []
-小学一年级2班, 英语, [刘雨依]
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+</t>
+  </si>
+  <si>
+    <t>17:0~17:40</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
+</t>
+  </si>
+  <si>
+    <t>DP2 Psychology HL, DP2 Psychology HL, [教师25]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+</t>
+  </si>
+  <si>
+    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 Psychology HL, DP1 Psychology HL, [教师25]
+DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+</t>
+  </si>
+  <si>
+    <t>17:50~18:30</t>
+  </si>
+  <si>
+    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 English B HL, DP2 English B HL, [教师22]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 English B SL, DP1 English B SL, [教师21]
+DP1 English B HL, DP1 English B HL, [教师16]
 </t>
   </si>
 </sst>
@@ -549,16 +811,16 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2" t="s"/>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s"/>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
@@ -569,17 +831,15 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="2" t="s"/>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -595,149 +855,181 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s"/>
       <c r="H4" s="2" t="s"/>
     </row>
     <row r="5" ht="170" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="2" t="s"/>
       <c r="H5" s="2" t="s"/>
     </row>
     <row r="6" ht="170" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s"/>
       <c r="H6" s="2" t="s"/>
     </row>
     <row r="7" ht="170" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s"/>
       <c r="H7" s="2" t="s"/>
     </row>
     <row r="8" ht="170" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G8" s="2" t="s"/>
       <c r="H8" s="2" t="s"/>
     </row>
     <row r="9" ht="170" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G9" s="2" t="s"/>
       <c r="H9" s="2" t="s"/>
     </row>
     <row r="10" ht="170" customHeight="true">
-      <c r="A10" s="1" t="s"/>
-      <c r="B10" s="2" t="s"/>
-      <c r="C10" s="2" t="s"/>
-      <c r="D10" s="2" t="s"/>
-      <c r="E10" s="2" t="s"/>
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="2" t="s"/>
       <c r="G10" s="2" t="s"/>
       <c r="H10" s="2" t="s"/>
     </row>
     <row r="11" ht="170" customHeight="true">
-      <c r="A11" s="1" t="s"/>
-      <c r="B11" s="2" t="s"/>
-      <c r="C11" s="2" t="s"/>
-      <c r="D11" s="2" t="s"/>
-      <c r="E11" s="2" t="s"/>
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s"/>
       <c r="H11" s="2" t="s"/>
     </row>
     <row r="12" ht="170" customHeight="true">
-      <c r="A12" s="1" t="s"/>
-      <c r="B12" s="2" t="s"/>
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C12" s="2" t="s"/>
-      <c r="D12" s="2" t="s"/>
+      <c r="D12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="2" t="s"/>
       <c r="F12" s="2" t="s"/>
       <c r="G12" s="2" t="s"/>

--- a/out/all.xlsx
+++ b/out/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>*</t>
   </si>
@@ -45,354 +45,351 @@
     <t>8:0~8:40</t>
   </si>
   <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+    <t>DP1 Economics, DP1 Economics, [教师1]
+DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Psychology HL, DP2 Psychology HL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Economics HL, DP2 Economics HL, [教师1]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 English, DP1 English, [教师17]
+</t>
+  </si>
+  <si>
+    <t>DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+</t>
+  </si>
+  <si>
+    <t>8:50~9:30</t>
+  </si>
+  <si>
+    <t>DP2 English B SL, DP2 English B SL, [教师16]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP1 Psychology HL, DP1 Psychology HL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
 DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+</t>
+  </si>
+  <si>
+    <t>DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>9:40~10:20</t>
+  </si>
+  <si>
+    <t>DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
+DP2 Business Management HL, DP2 Business Management HL, [教师8]
+DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP2 English TOK, DP2 English TOK, [教师22]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics, DP1 Economics, [教师1]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+</t>
+  </si>
+  <si>
+    <t>10:30~11:10</t>
+  </si>
+  <si>
+    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP2 Business Management HL, DP2 Business Management HL, [教师8]
+DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP1 Economics, DP1 Economics, [教师1]
 DP1 Economics, DP1 Economics, [教师1]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-</t>
-  </si>
-  <si>
-    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
 DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
 </t>
   </si>
   <si>
-    <t>DP2 English TOK, DP2 English TOK, [教师22]
-DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+</t>
+  </si>
+  <si>
+    <t>11:20~12:0</t>
+  </si>
+  <si>
+    <t>DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
 DP1 Business Management HL, DP1 Business Management HL, [教师8]
 DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP1 English, DP1 English, [教师17]
+DP1 Biology HL, DP1 Biology HL, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>14:30~15:10</t>
+  </si>
+  <si>
+    <t>DP1 Physics HL, DP1 Physics HL, [教师15]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP1 English, DP1 English, [教师17]
+DP2 Psychology HL, DP2 Psychology HL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Economics HL, DP2 Economics HL, [教师1]
+</t>
+  </si>
+  <si>
+    <t>DP2 Physics HL, DP2 Physics HL, [教师20]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
+</t>
+  </si>
+  <si>
+    <t>15:20~16:0</t>
+  </si>
+  <si>
+    <t>DP1 Physics HL, DP1 Physics HL, [教师15]
+DP1 English B HL, DP1 English B HL, [教师16]
 DP1 Economics, DP1 Economics, [教师1]
-</t>
-  </si>
-  <si>
-    <t>8:50~9:30</t>
-  </si>
-  <si>
-    <t>DP2 Business Management HL, DP2 Business Management HL, [教师8]
-DP1 Biology, DP1 Biology, [教师18]
+DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 Physics HL, DP2 Physics HL, [教师20]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
+</t>
+  </si>
+  <si>
+    <t>16:10~16:0</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+DP1 Economics, DP1 Economics, [教师1]
 DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP1 Economics, DP1 Economics, [教师1]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>9:40~10:20</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-DP1 Physics HL, DP1 Physics HL, [教师15]
-DP1 English, DP1 English, [教师17]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
 DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>10:30~11:10</t>
-  </si>
-  <si>
-    <t>DP2 English B HL, DP2 English B HL, [教师22]
-DP1 English, DP1 English, [教师17]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-DP1 Physics HL, DP1 Physics HL, [教师15]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-DP1 English, DP1 English, [教师17]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-</t>
-  </si>
-  <si>
-    <t>11:20~12:0</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
 DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP1 English, DP1 English, [教师17]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 English B HL, DP2 English B HL, [教师22]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP2 English B SL, DP2 English B SL, [教师16]
-</t>
-  </si>
-  <si>
-    <t>DP2 English TOK, DP2 English TOK, [教师22]
-DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
 </t>
   </si>
   <si>
     <t>DP1 Biology, DP1 Biology, [教师18]
 DP2 English B HL, DP2 English B HL, [教师22]
-DP2 English B SL, DP2 English B SL, [教师16]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
 DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
 </t>
   </si>
   <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP1 Biology HL, DP1 Biology HL, [教师18]
-DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>14:30~15:10</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>DP2 English B SL, DP2 English B SL, [教师16]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP1 English, DP1 English, [教师17]
+</t>
+  </si>
+  <si>
+    <t>16:10~16:50</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP2 English TOK, DP2 English TOK, [教师22]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+DP1 English B HL, DP1 English B HL, [教师16]
+</t>
+  </si>
+  <si>
+    <t>DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+</t>
+  </si>
+  <si>
+    <t>17:0~17:40</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
+DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 Biology, DP1 Biology, [教师18]
 DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 English B HL, DP1 English B HL, [教师16]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+</t>
+  </si>
+  <si>
+    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
+DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP1 English, DP1 English, [教师17]
+</t>
+  </si>
+  <si>
+    <t>17:50~18:30</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
 DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 English, DP1 English, [教师17]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-</t>
-  </si>
-  <si>
-    <t>DP1 Biology, DP1 Biology, [教师18]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 English B HL, DP1 English B HL, [教师16]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-</t>
-  </si>
-  <si>
-    <t>15:20~16:0</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP1 English, DP1 English, [教师17]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
 DP1 Biology, DP1 Biology, [教师18]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP1 English B HL, DP1 English B HL, [教师16]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>16:10~16:0</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>16:10~16:50</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>17:0~17:40</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
 DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-</t>
-  </si>
-  <si>
-    <t>DP2 Economics HL, DP2 Economics HL, [教师1]
-</t>
-  </si>
-  <si>
-    <t>DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>17:50~18:30</t>
-  </si>
-  <si>
-    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP1 English B HL, DP1 English B HL, [教师16]
 </t>
   </si>
 </sst>
@@ -984,16 +981,16 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s"/>
       <c r="G10" s="2" t="s"/>
@@ -1001,19 +998,19 @@
     </row>
     <row r="11" ht="170" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s"/>
@@ -1021,14 +1018,14 @@
     </row>
     <row r="12" ht="170" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s"/>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s"/>
       <c r="F12" s="2" t="s"/>

--- a/out/all.xlsx
+++ b/out/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>*</t>
   </si>
@@ -45,313 +45,317 @@
     <t>8:0~8:40</t>
   </si>
   <si>
-    <t>DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 English B SL, DP1 English B SL, [教师21]
+</t>
+  </si>
+  <si>
+    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Economics, DP1 Economics, [教师1]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP1 English, DP1 English, [教师17]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+</t>
+  </si>
+  <si>
+    <t>8:50~9:30</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
+DP2 Economics HL, DP2 Economics HL, [教师1]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP1 Biology, DP1 Biology, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 English B HL, DP2 English B HL, [教师22]
+</t>
+  </si>
+  <si>
+    <t>9:40~10:20</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
+DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Economics, DP1 Economics, [教师1]
+DP2 English B HL, DP2 English B HL, [教师22]
+DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
+DP1 English, DP1 English, [教师17]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 English TOK, DP2 English TOK, [教师22]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+DP2 Psychology HL, DP2 Psychology HL, [教师25]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
 DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+</t>
+  </si>
+  <si>
+    <t>10:30~11:10</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>11:20~12:0</t>
+  </si>
+  <si>
+    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
+DP2 Business Management HL, DP2 Business Management HL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
 DP1 English, DP1 English, [教师17]
 </t>
   </si>
   <si>
-    <t>DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
+    <t>DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
 DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-</t>
-  </si>
-  <si>
-    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>8:50~9:30</t>
-  </si>
-  <si>
-    <t>DP1 English B HL, DP1 English B HL, [教师16]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+DP1 Biology HL, DP1 Biology HL, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP1 English, DP1 English, [教师17]
 DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 English B SL, DP2 English B SL, [教师16]
-</t>
-  </si>
-  <si>
-    <t>DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
 DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
 </t>
   </si>
   <si>
-    <t>9:40~10:20</t>
-  </si>
-  <si>
-    <t>DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP2 Economics HL, DP2 Economics HL, [教师1]
-DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP1 English, DP1 English, [教师17]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>10:30~11:10</t>
-  </si>
-  <si>
-    <t>11:20~12:0</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL, DP1 Economics HL, [教师11]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP1 Biology, DP1 Biology, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP2 Physics HL, DP2 Physics HL, [教师20]
-</t>
-  </si>
-  <si>
     <t>14:30~15:10</t>
-  </si>
-  <si>
-    <t>DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP1 Biology, DP1 Biology, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Physics HL, DP2 Physics HL, [教师20]
-</t>
-  </si>
-  <si>
-    <t>15:20~16:0</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
   </si>
   <si>
     <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
 DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP1 English, DP1 English, [教师17]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Economics, DP1 Economics, [教师1]
 DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B SL, DP1 English B SL, [教师21]
+DP2 Physics HL, DP2 Physics HL, [教师20]
+DP1 English B HL, DP1 English B HL, [教师16]
+DP1 Biology, DP1 Biology, [教师18]
+DP2 Business Management HL, DP2 Business Management HL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
 DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
 </t>
   </si>
   <si>
-    <t>DP1 Physics HL, DP1 Physics HL, [教师15]
-DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP1 Biology HL, DP1 Biology HL, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
+DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
+DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
+DP1 Biology, DP1 Biology, [教师18]
+</t>
+  </si>
+  <si>
+    <t>15:20~16:0</t>
+  </si>
+  <si>
+    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
+DP1 Biology, DP1 Biology, [教师18]
+</t>
+  </si>
+  <si>
+    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
+DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
+DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
+DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP2 Biology HL, DP2 Biology HL, [教师27]
+DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
+DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+DP1 Biology, DP1 Biology, [教师18]
 </t>
   </si>
   <si>
     <t>16:10~16:0</t>
   </si>
   <si>
-    <t>DP1 Biology HL, DP1 Biology HL, [教师18]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-</t>
-  </si>
-  <si>
-    <t>DP1 Economics, DP1 Economics, [教师1]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
     <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
+DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
+DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
+DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
 </t>
   </si>
   <si>
     <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
 DP1 Biology, DP1 Biology, [教师18]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP1 Physics HL, DP1 Physics HL, [教师15]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
+DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+</t>
+  </si>
+  <si>
+    <t>DP1 Psychology HL, DP1 Psychology HL, [教师25]
+DP2 Biology HL, DP2 Biology HL, [教师27]
+DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
 </t>
   </si>
   <si>
     <t>16:10~16:50</t>
   </si>
   <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-DP1 Biology HL, DP1 Biology HL, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-</t>
-  </si>
-  <si>
     <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Chemistry HL, DP1 Chemistry HL, [教师7]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
+DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
+</t>
+  </si>
+  <si>
+    <t>DP2 English B SL, DP2 English B SL, [教师16]
+DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 English B HL, DP2 English B HL, [教师22]
+</t>
+  </si>
+  <si>
+    <t>DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+DP1 Economics HL, DP1 Economics HL, [教师11]
+</t>
+  </si>
+  <si>
+    <t>DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
 DP1 Biology, DP1 Biology, [教师18]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
+DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
 </t>
   </si>
   <si>
     <t>17:0~17:40</t>
   </si>
   <si>
-    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
 DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP1 English, DP1 English, [教师17]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP2 English TOK, DP2 English TOK, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP1 Biology, DP1 Biology, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP1 English B SL, DP1 English B SL, [教师21]
-DP2 English TOK, DP2 English TOK, [教师22]
+</t>
+  </si>
+  <si>
+    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
+DP2 English B HL, DP2 English B HL, [教师22]
+</t>
+  </si>
+  <si>
+    <t>DP1 Psychology HL, DP1 Psychology HL, [教师25]
+DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
+DP1 Economics, DP1 Economics, [教师1]
+DP1 Business Management HL, DP1 Business Management HL, [教师8]
+</t>
+  </si>
+  <si>
+    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
 </t>
   </si>
   <si>
     <t>17:50~18:30</t>
   </si>
   <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-DP1 Biology, DP1 Biology, [教师18]
+    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+</t>
+  </si>
+  <si>
+    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
+DP2 Economics HL, DP2 Economics HL, [教师1]
 </t>
   </si>
 </sst>
@@ -836,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -852,107 +856,107 @@
     </row>
     <row r="6" ht="170" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s"/>
       <c r="H6" s="2" t="s"/>
     </row>
     <row r="7" ht="170" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s"/>
       <c r="H7" s="2" t="s"/>
     </row>
     <row r="8" ht="170" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s"/>
       <c r="H8" s="2" t="s"/>
     </row>
     <row r="9" ht="170" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s"/>
       <c r="H9" s="2" t="s"/>
     </row>
     <row r="10" ht="170" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s"/>
       <c r="G10" s="2" t="s"/>
@@ -960,19 +964,19 @@
     </row>
     <row r="11" ht="170" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s"/>
@@ -980,14 +984,14 @@
     </row>
     <row r="12" ht="170" customHeight="true">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s"/>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s"/>
       <c r="F12" s="2" t="s"/>

--- a/out/all.xlsx
+++ b/out/all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>*</t>
   </si>
@@ -45,317 +45,402 @@
     <t>8:0~8:40</t>
   </si>
   <si>
-    <t>DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 English B SL, DP1 English B SL, [教师21]
-</t>
-  </si>
-  <si>
-    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP2 Sports Exercise and Health Science HL, DP2 Sports Exercise and Health Science HL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+G12 physics A-level, G12 physics A-level, [Bob]
+G11 A level BM, G11 A level BM, [Catherine Yang]
+DP1 Chinese A:language &amp;literature HL, DP1 Chinese A:language &amp;literature HL, [罗倩]
+DP1 Chinese A:language &amp;literature SL A&amp;B, DP1 Chinese A:language &amp;literature SL A&amp;B, [旷涛群]
+</t>
+  </si>
+  <si>
+    <t>DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
+DP2 English B: SL, DP2 English B: SL, [Yasmine]
+</t>
+  </si>
+  <si>
+    <t>G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+G12 A-level Math (Prob&amp;Stats), G12 A-level Math (Prob&amp;Stats), [Marris]
+DP2 Biology HL&amp;SL, DP2 Biology HL&amp;SL, [Nikolaos]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+</t>
+  </si>
+  <si>
+    <t>DP2 physics HL+SL+A-level, DP2 physics HL+SL+A-level, [Bob]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 ESS, DP2 ESS, [Arnold]
+</t>
+  </si>
+  <si>
+    <t>DP2 ESS, DP2 ESS, [Arnold]
+Combined A-level English, Combined A-level English, [Rebecca]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+DP2 chemistry HL+SL, DP2 chemistry HL+SL, [Maggie]
 </t>
   </si>
   <si>
     <t>8:50~9:30</t>
   </si>
   <si>
-    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP2 Economics HL, DP2 Economics HL, [教师1]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP1 Biology, DP1 Biology, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 English B HL, DP2 English B HL, [教师22]
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+DP1 physics HL, DP1 physics HL, [Jessie]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+</t>
+  </si>
+  <si>
+    <t>DP1 chemistry HL/SL + A level, DP1 chemistry HL/SL + A level, [Karsten]
+DP2 chemistry HL, DP2 chemistry HL, [Maggie]
+G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+DP1 Music: HL, DP1 Music: HL, [Katrina Ren]
+DP2 Sports sceince SL, DP2 Sports sceince SL, [Chris]
+DP2 VA: HL, DP2 VA: HL, [Christelle Herve]
+G12 Alevel Critical thinking and writing (CTW), G12 Alevel Critical thinking and writing (CTW), [Leo]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B: HL, DP1 English B: HL, [Wade]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
+DP2 Biology HL&amp;SL, DP2 Biology HL&amp;SL, [Nikolaos]
+DP1 English B: SL, DP1 English B: SL, [Avril]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP2 physics HL+SL+A-level, DP2 physics HL+SL+A-level, [Bob]
+DP1 English B: HL, DP1 English B: HL, [Wade]
+DP2 Sports sceince SL, DP2 Sports sceince SL, [Chris]
+DP2 ESS, DP2 ESS, [Arnold]
+DP1 English B: SL Tina, DP1 English B: SL Tina, [Tina]
+DP1 English B: SL, DP1 English B: SL, [Avril]
+</t>
+  </si>
+  <si>
+    <t>DP1 VA: HL +SL, DP1 VA: HL +SL, [Christelle Herve]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+DP1 chemistry HL + A level, DP1 chemistry HL + A level, [Karsten]
+DP1 Sports sceince HL+SL, DP1 Sports sceince HL+SL, [Chris]
 </t>
   </si>
   <si>
     <t>9:40~10:20</t>
   </si>
   <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Chinese A Literature HL, DP1 Chinese A Literature HL, [教师2]
-DP1 Critical thinking and writing (CTW), DP1 Critical thinking and writing (CTW), [教师4]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP1 English B SL, DP1 English B SL, [教师21]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Economics, DP1 Economics, [教师1]
-DP2 English B HL, DP2 English B HL, [教师22]
-DP1 Sports Exercise and Health Science SL, DP1 Sports Exercise and Health Science SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese TOK, DP2 Chinese TOK, [教师4]
-DP1 English, DP1 English, [教师17]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 English TOK, DP2 English TOK, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-DP1 Mathematics-Statistic, DP1 Mathematics-Statistic, [教师6]
-DP2 Psychology HL, DP2 Psychology HL, [教师25]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+    <t>DP1 BM: HL, DP1 BM: HL, [Catherine Yang]
+DP2 Chinese A: literature HL &amp; SL, DP2 Chinese A: literature HL &amp; SL, [张丽苹]
+DP2 BM: HL &amp; SL, DP2 BM: HL &amp; SL, [Nicholas Lambert]
+</t>
+  </si>
+  <si>
+    <t>DP1 BM: HL &amp; SL, DP1 BM: HL &amp; SL, [Catherine Yang]
+DP2 Sports sceince SL, DP2 Sports sceince SL, [Chris]
+DP2 VA: HL, DP2 VA: HL, [Christelle Herve]
+G12 Alevel Critical thinking and writing (CTW), G12 Alevel Critical thinking and writing (CTW), [Leo]
+DP2 chemistry HL+SL, DP2 chemistry HL+SL, [Maggie]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A:language &amp;literature HL, DP2 Chinese A:language &amp;literature HL, [应亦如]
+DP1 VA: HL, DP1 VA: HL, [Christelle Herve]
+DP2 Sports sceince SL, DP2 Sports sceince SL, [Chris]
+DP2 physics HL+A-level, DP2 physics HL+A-level, [Bob]
+</t>
+  </si>
+  <si>
+    <t>G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+DP1 Music: HL, DP1 Music: HL, [Katrina Ren]
+DP1 BM: HL &amp; SL, DP1 BM: HL &amp; SL, [Catherine Yang]
+DP2 Chinese A:language &amp;literature SL &amp; HL, DP2 Chinese A:language &amp;literature SL &amp; HL, [应亦如]
+DP2 Chinese A: literature HL, DP2 Chinese A: literature HL, [张丽苹]
+</t>
+  </si>
+  <si>
+    <t>DP1 Chinese A:language &amp;literature SL X&amp;Y, DP1 Chinese A:language &amp;literature SL X&amp;Y, [旷涛群]
+DP2 Psychology: HL &amp;SL, DP2 Psychology: HL &amp;SL, [Dr. Brad Jurica]
+DP1 Chinese A: literature HL &amp; SL, DP1 Chinese A: literature HL &amp; SL, [罗倩]
+DP2 BM: HL, DP2 BM: HL, [Nicholas Lambert]
 </t>
   </si>
   <si>
     <t>10:30~11:10</t>
   </si>
   <si>
-    <t>DP1 English B SL, DP1 English B SL, [教师21]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+DP1 physics HL + SL, DP1 physics HL + SL, [Jessie]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+G12 English (AS Level 9093), G12 English (AS Level 9093), [Rebecca]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A: literature HL &amp; SL, DP2 Chinese A: literature HL &amp; SL, [张丽苹]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 Chinese A:language &amp;literature SL &amp; HL, DP2 Chinese A:language &amp;literature SL &amp; HL, [应亦如]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+</t>
+  </si>
+  <si>
+    <t>DP1 VA: HL +SL, DP1 VA: HL +SL, [Christelle Herve]
+DP1 Psychology: HL &amp;SL, DP1 Psychology: HL &amp;SL, [Dr. Brad Jurica]
+Combined A-level English, Combined A-level English, [Rebecca]
+DP2 TOK in Chinese, DP2 TOK in Chinese, [Feng Yu]
+DP2 TOK in English, DP2 TOK in English, [Arnold]
+</t>
+  </si>
+  <si>
+    <t>DP1 physics HL + SL, DP1 physics HL + SL, [Jessie]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+</t>
+  </si>
+  <si>
+    <t>DP1 chemistry HL/SL + A level, DP1 chemistry HL/SL + A level, [Karsten]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+G12 A-level Math (Pure), G12 A-level Math (Pure), [Tyler]
+DP2 English B: SL, DP2 English B: SL, [Yasmine]
+DP1 Sports sceince HL+SL, DP1 Sports sceince HL+SL, [Chris]
 </t>
   </si>
   <si>
     <t>11:20~12:0</t>
   </si>
   <si>
-    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Mathematics Analysis and Approaches SL, DP2 Mathematics Analysis and Approaches SL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP1 English, DP1 English, [教师17]
-</t>
-  </si>
-  <si>
-    <t>DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-DP1 Biology HL, DP1 Biology HL, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP1 English, DP1 English, [教师17]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
+    <t>DP1 Chinese A: literature HL, DP1 Chinese A: literature HL, [罗倩]
+DP2 Biology HL, DP2 Biology HL, [Nikolaos]
+G11 A level BM, G11 A level BM, [Catherine Yang]
+DP1 Chinese A:language &amp;literature SL A&amp;B, DP1 Chinese A:language &amp;literature SL A&amp;B, [旷涛群]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP2 chemistry HL, DP2 chemistry HL, [Maggie]
+DP2 Psychology: HL, DP2 Psychology: HL, [Dr. Brad Jurica]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+DP1 ESS, DP1 ESS, [Arnold]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP1 English B: HL, DP1 English B: HL, [Wade]
+G12 A-level Math (Pure), G12 A-level Math (Pure), [Tyler]
+DP2 TOK in Chinese, DP2 TOK in Chinese, [Feng Yu]
+DP2 TOK in English, DP2 TOK in English, [Arnold]
+</t>
+  </si>
+  <si>
+    <t>DP2 physics HL+SL+A-level, DP2 physics HL+SL+A-level, [Bob]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 Chinese A: literature HL, DP2 Chinese A: literature HL, [张丽苹]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+DP1 Math AA:  SL, DP1 Math AA:  SL, [Ally]
+</t>
+  </si>
+  <si>
+    <t>DP2 physics HL+SL+A-level, DP2 physics HL+SL+A-level, [Bob]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 ESS, DP2 ESS, [Arnold]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
 </t>
   </si>
   <si>
     <t>14:30~15:10</t>
   </si>
   <si>
-    <t>DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Mathematics-Pure, DP1 Mathematics-Pure, [教师9]
-</t>
-  </si>
-  <si>
-    <t>DP1 English B SL, DP1 English B SL, [教师21]
-DP2 Physics HL, DP2 Physics HL, [教师20]
-DP1 English B HL, DP1 English B HL, [教师16]
-DP1 Biology, DP1 Biology, [教师18]
-DP2 Business Management HL, DP2 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP1 Biology HL, DP1 Biology HL, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP2 Chinese A Language and Literature SL, DP2 Chinese A Language and Literature SL, [教师12]
-DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
-DP2 Chinese A Literature HL, DP2 Chinese A Literature HL, [教师10]
-DP1 Biology, DP1 Biology, [教师18]
+    <t>DP1 VA: HL +SL, DP1 VA: HL +SL, [Christelle Herve]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
+DP1 Psychology: HL, DP1 Psychology: HL, [Dr. Brad Jurica]
+DP2 Biology HL&amp;SL, DP2 Biology HL&amp;SL, [Nikolaos]
+DP1 physics HL, DP1 physics HL, [Jessie]
+DP1 Sports sceince HL+SL, DP1 Sports sceince HL+SL, [Chris]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A:language &amp;literature HL, DP2 Chinese A:language &amp;literature HL, [应亦如]
+G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+G12 physics A-level, G12 physics A-level, [Bob]
+DP1 Chinese A: literature HL &amp; SL, DP1 Chinese A: literature HL &amp; SL, [罗倩]
+DP1 Chinese A:language &amp;literature SL A&amp;B, DP1 Chinese A:language &amp;literature SL A&amp;B, [旷涛群]
+G11 chemistry A level, G11 chemistry A level, [Karsten]
+DP2 chemistry HL+SL, DP2 chemistry HL+SL, [Maggie]
+</t>
+  </si>
+  <si>
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+DP2 Math AA:  SL, DP2 Math AA:  SL, [Zoey]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+DP1 ESS, DP1 ESS, [Arnold]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+</t>
+  </si>
+  <si>
+    <t>DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 Psychology: HL, DP2 Psychology: HL, [Dr. Brad Jurica]
+Combined A-level English, Combined A-level English, [Rebecca]
+DP1 Math AA:  SL, DP1 Math AA:  SL, [Ally]
+DP2 BM: HL, DP2 BM: HL, [Nicholas Lambert]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A:language &amp;literature SL &amp; HL, DP2 Chinese A:language &amp;literature SL &amp; HL, [应亦如]
+DP1 physics HL + SL, DP1 physics HL + SL, [Jessie]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+DP1 Math AA:  SL, DP1 Math AA:  SL, [Ally]
 </t>
   </si>
   <si>
     <t>15:20~16:0</t>
   </si>
   <si>
-    <t>DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Visual Arts HL, DP1 Visual Arts HL, [教师23]
-DP1 Biology, DP1 Biology, [教师18]
-</t>
-  </si>
-  <si>
-    <t>DP2 Psychology HL+SL, DP2 Psychology HL+SL, [教师25]
-DP1 Mathematics Analysis and Approaches HL, DP1 Mathematics Analysis and Approaches HL, [教师14]
-DP1 Mathematics Analysis and Approaches SL, DP1 Mathematics Analysis and Approaches SL, [教师19]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL+SL, DP2 Biology HL+SL, [教师27]
-DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP2 Biology HL, DP2 Biology HL, [教师27]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-DP1 Physics HL+SL, DP1 Physics HL+SL, [教师15]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-DP1 Biology, DP1 Biology, [教师18]
+    <t>G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+DP2 Biology HL, DP2 Biology HL, [Nikolaos]
+G12 Alevel Critical thinking and writing (CTW), G12 Alevel Critical thinking and writing (CTW), [Leo]
+DP2 Eco:  HL, DP2 Eco:  HL, [Ann Liu]
+DP1 Chinese A:language &amp;literature HL, DP1 Chinese A:language &amp;literature HL, [罗倩]
+</t>
+  </si>
+  <si>
+    <t>DP2 Eco:  HL&amp;SL, DP2 Eco:  HL&amp;SL, [Ann Liu]
+G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP1 ESS, DP1 ESS, [Arnold]
+G11 A level Economics, G11 A level Economics, [Nicholas Lambert]
+DP1 Music: HL +SL, DP1 Music: HL +SL, [Katrina Ren]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP2 Chinese A: literature HL &amp; SL, DP2 Chinese A: literature HL &amp; SL, [张丽苹]
+DP2 BM: HL &amp; SL, DP2 BM: HL &amp; SL, [Nicholas Lambert]
+G12 A-level Math (Prob&amp;Stats), G12 A-level Math (Prob&amp;Stats), [Marris]
+DP1 Chinese A: literature HL &amp; SL, DP1 Chinese A: literature HL &amp; SL, [罗倩]
+DP1 Music: HL +SL, DP1 Music: HL +SL, [Katrina Ren]
+</t>
+  </si>
+  <si>
+    <t>G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP2 BM: HL &amp; SL, DP2 BM: HL &amp; SL, [Nicholas Lambert]
+DP2 Psychology: HL &amp;SL, DP2 Psychology: HL &amp;SL, [Dr. Brad Jurica]
+DP1 Chinese A:language &amp;literature SL A&amp;B, DP1 Chinese A:language &amp;literature SL A&amp;B, [旷涛群]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP2 Chinese A:language &amp;literature SL &amp; HL, DP2 Chinese A:language &amp;literature SL &amp; HL, [应亦如]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+DP1 ESS, DP1 ESS, [Arnold]
+DP1 English B: SL Rebecca, DP1 English B: SL Rebecca, [Rebecca]
 </t>
   </si>
   <si>
     <t>16:10~16:0</t>
   </si>
   <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-DP2 Business Management HL+SL, DP2 Business Management HL+SL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Psychology HL+SL, DP1 Psychology HL+SL, [教师25]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-DP1 Chinese A Language and Literature HL+SL, DP1 Chinese A Language and Literature HL+SL, [教师5]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-</t>
-  </si>
-  <si>
-    <t>DP1 Chinese A Language and Literature HL, DP1 Chinese A Language and Literature HL, [教师5]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Chinese A Literature HL+SL, DP1 Chinese A Literature HL+SL, [教师2]
-DP2 Economics HL+SL, DP2 Economics HL+SL, [教师1]
-</t>
-  </si>
-  <si>
-    <t>DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP2 Biology HL, DP2 Biology HL, [教师27]
-DP2 Chemistry HL, DP2 Chemistry HL, [教师13]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
+    <t>DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+DP2 ESS, DP2 ESS, [Arnold]
+G12 A-level Math (Pure), G12 A-level Math (Pure), [Tyler]
+DP2 Biology HL&amp;SL, DP2 Biology HL&amp;SL, [Nikolaos]
+</t>
+  </si>
+  <si>
+    <t>G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP1 physics HL + SL, DP1 physics HL + SL, [Jessie]
+DP1 Biology HL/SL, DP1 Biology HL/SL, [New Biology Teacher 1]
+G11 chemistry A level, G11 chemistry A level, [Karsten]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+DP1 VA: HL +SL, DP1 VA: HL +SL, [Christelle Herve]
+DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP2 Math AA:  SL, DP2 Math AA:  SL, [Zoey]
+DP1 Chinese A:language &amp;literature HL, DP1 Chinese A:language &amp;literature HL, [罗倩]
+DP1 Chinese A:language &amp;literature SL A&amp;B, DP1 Chinese A:language &amp;literature SL A&amp;B, [旷涛群]
+</t>
+  </si>
+  <si>
+    <t>DP1 chemistry HL/SL + A level, DP1 chemistry HL/SL + A level, [Karsten]
+DP2 Psychology: HL &amp;SL, DP2 Psychology: HL &amp;SL, [Dr. Brad Jurica]
+G12 A-level Math (Pure), G12 A-level Math (Pure), [Tyler]
+DP1 Sports sceince HL+SL, DP1 Sports sceince HL+SL, [Chris]
+</t>
+  </si>
+  <si>
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+DP2 Math AA:  SL, DP2 Math AA:  SL, [Zoey]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
 </t>
   </si>
   <si>
     <t>16:10~16:50</t>
   </si>
   <si>
-    <t>DP2 Chemistry HL+SL, DP2 Chemistry HL+SL, [教师13]
-DP1 Biology HL+SL, DP1 Biology HL+SL, [教师18]
-DP2 Sports Exercise and Health Science HL+SL, DP2 Sports Exercise and Health Science HL+SL, [教师24]
-</t>
-  </si>
-  <si>
-    <t>DP2 English B SL, DP2 English B SL, [教师16]
-DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP2 Physics HL+SL, DP2 Physics HL+SL, [教师20]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-DP1 Economics HL, DP1 Economics HL, [教师11]
-</t>
-  </si>
-  <si>
-    <t>DP1 Environmental Systems &amp; Societies SL, DP1 Environmental Systems &amp; Societies SL, [教师26]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Biology, DP1 Biology, [教师18]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
+    <t>DP2 Eco:  HL&amp;SL, DP2 Eco:  HL&amp;SL, [Ann Liu]
+Combined A-level English, Combined A-level English, [Rebecca]
+</t>
+  </si>
+  <si>
+    <t>DP2 Chinese A: literature HL &amp; SL, DP2 Chinese A: literature HL &amp; SL, [张丽苹]
+DP2 Chinese A:language &amp;literature SL &amp; HL, DP2 Chinese A:language &amp;literature SL &amp; HL, [应亦如]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
+DP1 Chinese A:language &amp;literature HL, DP1 Chinese A:language &amp;literature HL, [罗倩]
+</t>
+  </si>
+  <si>
+    <t>G11 Alevel math, G11 Alevel math, [Nick]
+G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP1 English B: HL, DP1 English B: HL, [Wade]
+DP2 English B: SL, DP2 English B: SL, [Yasmine]
+</t>
+  </si>
+  <si>
+    <t>DP2 Eco:  HL&amp;SL, DP2 Eco:  HL&amp;SL, [Ann Liu]
+DP1 Math AA:  HL, DP1 Math AA:  HL, [Tyler,Zoey]
+G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+G12 A-level Math (Prob&amp;Stats), G12 A-level Math (Prob&amp;Stats), [Marris]
 </t>
   </si>
   <si>
     <t>17:0~17:40</t>
   </si>
   <si>
-    <t>DP2 Mathematics Analysis and Approaches HL, DP2 Mathematics Analysis and Approaches HL, [教师9]
-DP1 Economics HL+SL, DP1 Economics HL+SL, [教师11]
-</t>
-  </si>
-  <si>
-    <t>DP2 Japanese ab initio, DP2 Japanese ab initio, [教师3]
-DP2 English B HL, DP2 English B HL, [教师22]
-</t>
-  </si>
-  <si>
-    <t>DP1 Psychology HL, DP1 Psychology HL, [教师25]
-DP2 Chinese A Literature HL+SL, DP2 Chinese A Literature HL+SL, [教师10]
-DP1 Economics, DP1 Economics, [教师1]
-DP1 Business Management HL, DP1 Business Management HL, [教师8]
-</t>
-  </si>
-  <si>
-    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-DP1 Chemistry HL+SL, DP1 Chemistry HL+SL, [教师7]
-</t>
-  </si>
-  <si>
-    <t>17:50~18:30</t>
-  </si>
-  <si>
-    <t>DP2 Environmental Systems &amp; Societies SL, DP2 Environmental Systems &amp; Societies SL, [教师26]
-</t>
-  </si>
-  <si>
-    <t>DP1 Visual Arts HL+SL, DP1 Visual Arts HL+SL, [教师23]
-DP2 Economics HL, DP2 Economics HL, [教师1]
+    <t>DP2 Math AA:  HL, DP2 Math AA:  HL, [Scarlett He]
+DP2 Math AA:  SL, DP2 Math AA:  SL, [Zoey]
+Combined A-level English, Combined A-level English, [Rebecca]
+</t>
+  </si>
+  <si>
+    <t>DP1 BM: HL, DP1 BM: HL, [Catherine Yang]
+G11 A level Psychology, G11 A level Psychology, [Dr. Brad Jurica]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+DP2 Alevel Economics, DP2 Alevel Economics, [Ivy Zhang]
+DP2 English B: SL, DP2 English B: SL, [Yasmine]
+DP1 Music: HL +SL, DP1 Music: HL +SL, [Katrina Ren]
+</t>
+  </si>
+  <si>
+    <t>DP1 English B: HL, DP1 English B: HL, [Wade]
+DP1 English B: SL Tina, DP1 English B: SL Tina, [Tina]
+G11 Biology A level, G11 Biology A level, [New Biology teacher 1]
+DP2 Eco:  HL, DP2 Eco:  HL, [Ann Liu]
+DP1 English B: SL, DP1 English B: SL, [Avril]
+DP2 physics HL+A-level, DP2 physics HL+A-level, [Bob]
+</t>
+  </si>
+  <si>
+    <t>G12 Alevel biology, G12 Alevel biology, [Nikolaos]
+DP2 English B: HL, DP2 English B: HL, [Wade]
+DP2 English B: SL, DP2 English B: SL, [Yasmine]
+DP1 Psychology: HL, DP1 Psychology: HL, [Dr. Brad Jurica]
+DP1 Eco:  HL&amp;SL, DP1 Eco:  HL&amp;SL, [Ivy Zhang]
+G11 Alevel Critical thinking and writing (CTW) &amp;IPQ, G11 Alevel Critical thinking and writing (CTW) &amp;IPQ, [Arnold]
 </t>
   </si>
 </sst>
@@ -774,189 +859,193 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s"/>
       <c r="H2" s="2" t="s"/>
     </row>
     <row r="3" ht="170" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s"/>
       <c r="H3" s="2" t="s"/>
     </row>
     <row r="4" ht="170" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s"/>
       <c r="H4" s="2" t="s"/>
     </row>
     <row r="5" ht="170" customHeight="true">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s"/>
       <c r="H5" s="2" t="s"/>
     </row>
     <row r="6" ht="170" customHeight="true">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s"/>
       <c r="H6" s="2" t="s"/>
     </row>
     <row r="7" ht="170" customHeight="true">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s"/>
       <c r="H7" s="2" t="s"/>
     </row>
     <row r="8" ht="170" customHeight="true">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s"/>
       <c r="H8" s="2" t="s"/>
     </row>
     <row r="9" ht="170" customHeight="true">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s"/>
       <c r="H9" s="2" t="s"/>
     </row>
     <row r="10" ht="170" customHeight="true">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s"/>
       <c r="G10" s="2" t="s"/>
@@ -964,35 +1053,29 @@
     </row>
     <row r="11" ht="170" customHeight="true">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s"/>
       <c r="G11" s="2" t="s"/>
       <c r="H11" s="2" t="s"/>
     </row>
     <row r="12" ht="170" customHeight="true">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A12" s="1" t="s"/>
+      <c r="B12" s="2" t="s"/>
       <c r="C12" s="2" t="s"/>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="D12" s="2" t="s"/>
       <c r="E12" s="2" t="s"/>
       <c r="F12" s="2" t="s"/>
       <c r="G12" s="2" t="s"/>
